--- a/Aufgabe35/Aufgabe35.xlsx
+++ b/Aufgabe35/Aufgabe35.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karch\Desktop\WissRechnen\Aufgabe35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E6EFCEB-24AD-4CB9-83B7-576B2C68955B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA39B81-486B-4C2A-AD98-027E6FD0571C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{7DA6FAF2-C150-4C31-868B-4184A3429EED}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="213">
   <si>
     <t>Column1</t>
   </si>
@@ -669,6 +669,18 @@
   </si>
   <si>
     <t>penalty = 25</t>
+  </si>
+  <si>
+    <t>DGV deg = 1</t>
+  </si>
+  <si>
+    <t>DGV deg = 2</t>
+  </si>
+  <si>
+    <t>FEM linear</t>
+  </si>
+  <si>
+    <t>FEM quadratisch</t>
   </si>
 </sst>
 </file>
@@ -829,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -870,6 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1340,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44419A2F-0BF1-4643-BBE7-D10A0CA48DEF}">
   <dimension ref="A1:BJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY5" workbookViewId="0">
-      <selection activeCell="BF8" sqref="BF8"/>
+    <sheetView tabSelected="1" topLeftCell="AR6" workbookViewId="0">
+      <selection activeCell="AZ28" sqref="AZ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3068,6 +3081,21 @@
       <c r="AS22" s="18">
         <v>3</v>
       </c>
+      <c r="AV22" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="16">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="16">
+        <v>2</v>
+      </c>
+      <c r="AZ22" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="3:62" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="C23" s="7" t="s">
@@ -3130,6 +3158,21 @@
       <c r="AS23" s="9" t="s">
         <v>65</v>
       </c>
+      <c r="AV23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW23" s="20">
+        <v>342</v>
+      </c>
+      <c r="AX23" s="20">
+        <v>1183</v>
+      </c>
+      <c r="AY23" s="20">
+        <v>4307</v>
+      </c>
+      <c r="AZ23" s="21">
+        <v>16291</v>
+      </c>
     </row>
     <row r="24" spans="3:62" x14ac:dyDescent="0.4">
       <c r="C24" s="7" t="s">
@@ -3192,6 +3235,21 @@
       <c r="AS24" s="9" t="s">
         <v>106</v>
       </c>
+      <c r="AV24" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AW24" s="20">
+        <v>1236</v>
+      </c>
+      <c r="AX24" s="19">
+        <v>4418</v>
+      </c>
+      <c r="AY24" s="20">
+        <v>16526</v>
+      </c>
+      <c r="AZ24" s="21">
+        <v>63686</v>
+      </c>
     </row>
     <row r="25" spans="3:62" x14ac:dyDescent="0.4">
       <c r="C25" s="7" t="s">
@@ -3254,6 +3312,21 @@
       <c r="AS25" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="AV25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AW25" s="20">
+        <v>1434</v>
+      </c>
+      <c r="AX25" s="20">
+        <v>5736</v>
+      </c>
+      <c r="AY25" s="20">
+        <v>22944</v>
+      </c>
+      <c r="AZ25" s="21">
+        <v>91776</v>
+      </c>
     </row>
     <row r="26" spans="3:62" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C26" s="10" t="s">
@@ -3315,6 +3388,21 @@
       </c>
       <c r="AS26" s="9" t="s">
         <v>155</v>
+      </c>
+      <c r="AV26" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW26" s="23">
+        <v>2868</v>
+      </c>
+      <c r="AX26" s="22">
+        <v>11472</v>
+      </c>
+      <c r="AY26" s="23">
+        <v>45888</v>
+      </c>
+      <c r="AZ26" s="24">
+        <v>183552</v>
       </c>
     </row>
     <row r="27" spans="3:62" ht="15" thickBot="1" x14ac:dyDescent="0.45">
